--- a/Template.xlsx
+++ b/Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
   <si>
     <t>CKP T Seluruh Fungsi</t>
   </si>
@@ -487,13 +487,156 @@
     <t>Uri Fasri Diayu, S.Tr.Stat.</t>
   </si>
   <si>
-    <t>Tony Suprianto, S.Si., M.A.P.</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tony</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Suprianto,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S.Si.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M.A.P.</t>
+    </r>
   </si>
   <si>
     <t>NIP. 19970317 201912 2 002</t>
   </si>
   <si>
-    <t>NIP. 19760521 200212 1 002</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NIP.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19760521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Satuan Organisasi   : </t>
   </si>
   <si>
     <t xml:space="preserve">Nama                       : </t>
@@ -510,16 +653,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;(&quot;0&quot;)&quot;"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,14 +700,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <u/>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -591,6 +734,13 @@
       <u/>
       <sz val="10"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -670,13 +820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -685,15 +828,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,62 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,8 +859,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,8 +940,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +950,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +1007,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,67 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +1085,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,43 +1127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1192,30 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1073,30 +1247,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1246,6 +1396,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1257,26 +1422,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,6 +1455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1310,159 +1478,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1471,17 +1621,17 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1501,19 +1651,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1521,19 +1683,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,13 +1699,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1717,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,7 +1726,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,52 +1744,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,53 +1795,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,101 +1855,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2127,939 +2283,939 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:7">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="96">
         <v>6</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="96">
         <v>1</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="96">
         <v>2</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="96">
         <v>5</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="96">
         <v>12</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="96">
         <v>4</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="96">
         <v>11</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="96">
         <v>1</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="96">
         <v>7</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="96">
         <v>3</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="96">
         <v>1</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="96">
         <v>8</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="100">
         <v>1</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="100">
         <v>11</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="102">
         <v>23</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="102">
         <v>10</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="102">
         <v>10</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="100">
         <v>4</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="100">
         <v>3</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="100">
         <v>5</v>
       </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="100">
         <v>12</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="100">
         <v>8</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="100">
         <v>1</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="100">
         <v>4</v>
       </c>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="102">
         <v>10</v>
       </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="102">
         <v>10</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="102">
         <v>7</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="102">
         <v>7</v>
       </c>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="102">
         <v>2</v>
       </c>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="102">
         <v>2</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="102">
         <v>27</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="102">
         <v>71</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="103">
+      <c r="E38" s="105">
         <v>1</v>
       </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="100"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="102"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="102">
         <v>9</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="102">
         <v>11</v>
       </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="102">
         <v>49</v>
       </c>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="102">
         <v>1</v>
       </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="102">
         <v>5</v>
       </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D44" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="102">
         <v>24</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="98">
+      <c r="E45" s="100">
         <v>6</v>
       </c>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="98" t="s">
+      <c r="D46" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="100">
         <v>2</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="98" t="s">
+      <c r="D47" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="100">
         <v>5</v>
       </c>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="107">
+      <c r="E48" s="109">
         <v>1</v>
       </c>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="98" t="s">
+      <c r="D49" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="107">
+      <c r="E49" s="109">
         <v>12</v>
       </c>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="110">
         <v>2</v>
       </c>
-      <c r="F50" s="108"/>
-      <c r="G50" s="99"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="101"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="98" t="s">
+      <c r="D51" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="100">
         <v>2</v>
       </c>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3093,543 +3249,543 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" ht="4" customHeight="1" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" ht="7" customHeight="1" spans="1:9">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="69" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71">
         <v>1</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="71">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="71">
         <v>3</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="71">
         <v>6</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="71">
         <v>7</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="70">
+      <c r="A6" s="16"/>
+      <c r="B6" s="72">
         <v>1</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="70">
+      <c r="A7" s="16"/>
+      <c r="B7" s="72">
         <v>2</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="81" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="70">
+      <c r="A8" s="16"/>
+      <c r="B8" s="72">
         <v>3</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="70">
+      <c r="A9" s="16"/>
+      <c r="B9" s="72">
         <v>4</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="70">
+      <c r="A10" s="16"/>
+      <c r="B10" s="72">
         <v>5</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="70">
+      <c r="A11" s="16"/>
+      <c r="B11" s="72">
         <v>6</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="70">
+      <c r="A12" s="16"/>
+      <c r="B12" s="72">
         <v>7</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="70">
+      <c r="A13" s="16"/>
+      <c r="B13" s="72">
         <v>8</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="81" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="70">
+      <c r="A14" s="16"/>
+      <c r="B14" s="72">
         <v>9</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="81" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="70">
+      <c r="A15" s="16"/>
+      <c r="B15" s="72">
         <v>10</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="70">
+      <c r="A16" s="16"/>
+      <c r="B16" s="72">
         <v>11</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="70">
+      <c r="A17" s="16"/>
+      <c r="B17" s="72">
         <v>12</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="79" t="s">
+      <c r="H17" s="78"/>
+      <c r="I17" s="81" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="70">
+      <c r="A18" s="16"/>
+      <c r="B18" s="72">
         <v>13</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="79" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="81" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="70">
+      <c r="A19" s="16"/>
+      <c r="B19" s="72">
         <v>14</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="79" t="s">
+      <c r="I19" s="81" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="70">
+      <c r="A20" s="16"/>
+      <c r="B20" s="72">
         <v>15</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="70" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="70">
+      <c r="A21" s="16"/>
+      <c r="B21" s="72">
         <v>16</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="70">
+      <c r="A22" s="16"/>
+      <c r="B22" s="72">
         <v>17</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="79"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" ht="28.15" customHeight="1" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="70">
+      <c r="A23" s="16"/>
+      <c r="B23" s="72">
         <v>18</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="79"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3646,7 +3802,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -3664,11 +3820,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>132</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="12"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" ht="18.15" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -3681,7 +3837,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -3692,7 +3848,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
@@ -3705,7 +3861,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3"/>
@@ -3718,7 +3874,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
@@ -3731,7 +3887,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
@@ -3744,7 +3900,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
@@ -3755,7 +3911,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
@@ -3779,10 +3935,10 @@
       <c r="G9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="17" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3794,16 +3950,16 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>-1</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="20">
         <v>-2</v>
       </c>
       <c r="C11" s="7">
@@ -3821,318 +3977,318 @@
       <c r="G11" s="7">
         <v>-7</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="60"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A13" s="18">
+      <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="61"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A14" s="18">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="61"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A15" s="18">
+      <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="61"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A16" s="18">
+      <c r="A16" s="10">
         <v>4</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="61"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="61"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <v>6</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="61"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A19" s="25">
+      <c r="A19" s="27">
         <v>7</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="62"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A20" s="25">
+      <c r="A20" s="27">
         <v>8</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="62"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A21" s="25">
+      <c r="A21" s="27">
         <v>9</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="62"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A23" s="18">
+      <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="61"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A24" s="18">
+      <c r="A24" s="10">
         <v>2</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="61"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A25" s="18">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="61"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" ht="15.9" spans="1:9">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" ht="15.9" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="40"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="40"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="38"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="41" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="40"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4162,8 +4318,8 @@
   <sheetPr/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -4181,11 +4337,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>132</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="12"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" ht="18.15" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -4198,7 +4354,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -4209,12 +4365,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4222,12 +4378,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4235,12 +4391,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4248,12 +4404,12 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4261,7 +4417,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
@@ -4272,7 +4428,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
@@ -4296,10 +4452,10 @@
       <c r="G9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="17" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4311,10 +4467,10 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
@@ -4338,15 +4494,26 @@
       <c r="G11" s="7">
         <v>-7</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="13" ht="20.25" customHeight="1"/>
-    <row r="14" ht="20.25" customHeight="1"/>
-    <row r="15" ht="20.25" customHeight="1"/>
-    <row r="16" ht="20.25" customHeight="1"/>
-    <row r="17" ht="20.25" customHeight="1"/>
-    <row r="18" ht="20.25" customHeight="1"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" ht="20.15" customHeight="1" spans="1:9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" ht="20.15" customHeight="1"/>
+    <row r="14" ht="20.15" customHeight="1"/>
+    <row r="15" ht="20.15" customHeight="1"/>
+    <row r="16" ht="20.15" customHeight="1"/>
+    <row r="17" ht="20.15" customHeight="1"/>
+    <row r="18" ht="20.15" customHeight="1"/>
     <row r="19" ht="20.25" customHeight="1"/>
     <row r="20" ht="20.25" customHeight="1"/>
     <row r="21" ht="20.25" customHeight="1"/>
@@ -4364,15 +4531,15 @@
     <row r="33" ht="20.25" customHeight="1"/>
     <row r="34" ht="20.25" customHeight="1"/>
     <row r="35" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" ht="20.25" customHeight="1"/>
     <row r="37" ht="20.25" customHeight="1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29103" windowHeight="12869" activeTab="3"/>
+    <workbookView windowWidth="29103" windowHeight="12869"/>
   </bookViews>
   <sheets>
     <sheet name="CKP-T All" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="163">
   <si>
     <t>CKP T Seluruh Fungsi</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Melakukan pengumpulan data Survei Lembaga Keuangan Koperasi Simpan Pinjam Tahun 2021</t>
   </si>
   <si>
+    <t>Dedi</t>
+  </si>
+  <si>
     <t>DAFTAR PEGAWAI (PNS DAN NON PNS) BPS KABUPATEN LAMANDAU PER 31 JULI 2021</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
   </si>
   <si>
     <t>Dedi Kurniawan, SE.</t>
-  </si>
-  <si>
-    <t>Dedi</t>
   </si>
   <si>
     <t>IIIc</t>
@@ -653,14 +653,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="&quot;(&quot;0&quot;)&quot;"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -812,14 +812,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -828,32 +820,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,14 +844,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,61 +948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,13 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,67 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1055,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,13 +1103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,7 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,7 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,6 +1164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,6 +1396,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1407,35 +1416,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,15 +1435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1478,156 +1449,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,16 +1651,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1684,7 +1684,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,7 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,67 +1744,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,7 +1831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,8 +1948,8 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2267,10 +2267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="6"/>
@@ -3217,6 +3217,101 @@
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
     </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="100">
+        <v>5</v>
+      </c>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="109">
+        <v>1</v>
+      </c>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="109">
+        <v>12</v>
+      </c>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="110">
+        <v>2</v>
+      </c>
+      <c r="F55" s="110"/>
+      <c r="G55" s="101"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="100">
+        <v>2</v>
+      </c>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
@@ -3231,8 +3326,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -3251,7 +3346,7 @@
     <row r="1" ht="24" customHeight="1" spans="1:9">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -3286,28 +3381,28 @@
     <row r="4" spans="1:9">
       <c r="A4" s="16"/>
       <c r="B4" s="68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3319,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="71">
         <v>3</v>
@@ -3339,19 +3434,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="81"/>
@@ -3362,25 +3457,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="28.15" customHeight="1" spans="1:9">
@@ -3389,22 +3484,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="81" t="s">
         <v>33</v>
@@ -3416,22 +3511,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>83</v>
       </c>
       <c r="I9" s="81" t="s">
         <v>33</v>
@@ -3443,22 +3538,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="81" t="s">
         <v>26</v>
@@ -3470,22 +3565,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" s="78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="81" t="s">
         <v>9</v>
@@ -3497,22 +3592,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="78" t="s">
         <v>95</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>94</v>
       </c>
       <c r="I12" s="81" t="s">
         <v>9</v>
@@ -3524,22 +3619,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="81" t="s">
         <v>52</v>
@@ -3551,22 +3646,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>52</v>
@@ -3578,22 +3673,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I15" s="81" t="s">
         <v>56</v>
@@ -3605,22 +3700,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="78" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>108</v>
       </c>
       <c r="I16" s="81" t="s">
         <v>56</v>
@@ -3632,10 +3727,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E17" s="72" t="s">
         <v>115</v>
@@ -3688,19 +3783,19 @@
         <v>123</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="77" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="78" t="s">
         <v>125</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="28.15" customHeight="1" spans="1:9">
@@ -4318,7 +4413,7 @@
   <sheetPr/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29103" windowHeight="12869"/>
+    <workbookView windowWidth="29103" windowHeight="12869" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CKP-T All" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="164">
   <si>
     <t>CKP T Seluruh Fungsi</t>
   </si>
@@ -223,9 +223,15 @@
     <t>SEKSI UTAMA</t>
   </si>
   <si>
+    <t>Kesepakatan Target</t>
+  </si>
+  <si>
     <t>(3)</t>
   </si>
   <si>
+    <t>Tanggal: 31 Agustus 2021</t>
+  </si>
+  <si>
     <t>Tony Suprianto, S.Si.,M.A.P</t>
   </si>
   <si>
@@ -470,9 +476,6 @@
   </si>
   <si>
     <t>JUMLAH</t>
-  </si>
-  <si>
-    <t>Kesepakatan Target</t>
   </si>
   <si>
     <t>Tanggal : 31 Juli 2021</t>
@@ -654,15 +657,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;(&quot;0&quot;)&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +784,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -812,67 +823,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -888,18 +838,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -911,23 +861,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,15 +909,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,7 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,37 +1084,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,49 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,13 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,6 +1411,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1421,21 +1441,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1452,8 +1457,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1468,13 +1475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,155 +1494,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,29 +1755,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,36 +1786,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,95 +1872,98 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2269,7 +2283,7 @@
   <sheetPr/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -2283,1034 +2297,1034 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="84"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="84"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:7">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="93" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="97">
         <v>6</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="97">
         <v>1</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="97">
         <v>2</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="97">
         <v>5</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="97">
         <v>12</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="97">
         <v>4</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="97">
         <v>11</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="97">
         <v>1</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="97">
         <v>7</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="97">
         <v>3</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="97">
         <v>1</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="97">
         <v>8</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="101">
         <v>1</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="101">
         <v>11</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="103">
         <v>23</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="103">
         <v>10</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="103">
         <v>10</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="101">
         <v>4</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="101">
         <v>3</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="101">
         <v>5</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E26" s="101">
         <v>12</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="101">
         <v>8</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="101">
         <v>1</v>
       </c>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="101">
         <v>4</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="102">
+      <c r="E30" s="103">
         <v>10</v>
       </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="102">
+      <c r="E31" s="103">
         <v>10</v>
       </c>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="102">
+      <c r="E32" s="103">
         <v>7</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="103">
         <v>7</v>
       </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="102">
+      <c r="E34" s="103">
         <v>2</v>
       </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="102">
+      <c r="E35" s="103">
         <v>2</v>
       </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="103">
         <v>27</v>
       </c>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="102">
+      <c r="E37" s="103">
         <v>71</v>
       </c>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="105">
+      <c r="E38" s="106">
         <v>1</v>
       </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="102"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="103"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="102">
+      <c r="E39" s="103">
         <v>9</v>
       </c>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="102">
+      <c r="E40" s="103">
         <v>11</v>
       </c>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="102">
+      <c r="E41" s="103">
         <v>49</v>
       </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="102">
+      <c r="E42" s="103">
         <v>1</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="103">
         <v>5</v>
       </c>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="102">
+      <c r="E44" s="103">
         <v>24</v>
       </c>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="101">
         <v>6</v>
       </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C46" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="100" t="s">
+      <c r="D46" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="101">
         <v>2</v>
       </c>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="100" t="s">
+      <c r="D47" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="101">
         <v>5</v>
       </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="100" t="s">
+      <c r="D48" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="109">
+      <c r="E48" s="110">
         <v>1</v>
       </c>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="99" t="s">
+      <c r="C49" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="100" t="s">
+      <c r="D49" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="109">
+      <c r="E49" s="110">
         <v>12</v>
       </c>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="110">
+      <c r="E50" s="111">
         <v>2</v>
       </c>
-      <c r="F50" s="110"/>
-      <c r="G50" s="101"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="102"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="100" t="s">
+      <c r="D51" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="101">
         <v>2</v>
       </c>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="100" t="s">
+      <c r="D52" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="101">
         <v>5</v>
       </c>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="99" t="s">
+      <c r="C53" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="100" t="s">
+      <c r="D53" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="109">
+      <c r="E53" s="110">
         <v>1</v>
       </c>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="109">
+      <c r="E54" s="110">
         <v>12</v>
       </c>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="107" t="s">
+      <c r="A55" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="101" t="s">
+      <c r="C55" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="110">
+      <c r="E55" s="111">
         <v>2</v>
       </c>
-      <c r="F55" s="110"/>
-      <c r="G55" s="101"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="102"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="99" t="s">
+      <c r="C56" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="100" t="s">
+      <c r="D56" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="100">
+      <c r="E56" s="101">
         <v>2</v>
       </c>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3324,10 +3338,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -3378,7 +3392,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="16"/>
       <c r="B4" s="68" t="s">
         <v>60</v>
@@ -3404,8 +3418,11 @@
       <c r="I4" s="69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="70"/>
       <c r="B5" s="71">
         <v>1</v>
@@ -3414,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="71">
         <v>3</v>
@@ -3427,6 +3444,9 @@
       </c>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" ht="28.15" customHeight="1" spans="1:9">
       <c r="A6" s="16"/>
@@ -3434,22 +3454,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="78"/>
-      <c r="I6" s="81"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" ht="28.15" customHeight="1" spans="1:9">
       <c r="A7" s="16"/>
@@ -3457,25 +3477,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="28.15" customHeight="1" spans="1:9">
@@ -3484,24 +3504,24 @@
         <v>3</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="82" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3511,24 +3531,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="H9" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="82" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3538,24 +3558,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3565,24 +3585,24 @@
         <v>6</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3592,24 +3612,24 @@
         <v>7</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3619,24 +3639,24 @@
         <v>8</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="82" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3646,24 +3666,24 @@
         <v>9</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="82" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3673,24 +3693,24 @@
         <v>10</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="82" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3700,24 +3720,24 @@
         <v>11</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D16" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="82" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3727,23 +3747,23 @@
         <v>12</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="78"/>
-      <c r="I17" s="81" t="s">
-        <v>118</v>
+      <c r="I17" s="82" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="28.15" customHeight="1" spans="1:9">
@@ -3752,23 +3772,23 @@
         <v>13</v>
       </c>
       <c r="C18" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="82" t="s">
         <v>120</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="81" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" ht="28.15" customHeight="1" spans="1:9">
@@ -3777,25 +3797,25 @@
         <v>14</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="81" t="s">
-        <v>79</v>
+        <v>127</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="28.15" customHeight="1" spans="1:9">
@@ -3804,20 +3824,20 @@
         <v>15</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" s="72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H20" s="78"/>
-      <c r="I20" s="81"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" ht="28.15" customHeight="1" spans="1:9">
       <c r="A21" s="16"/>
@@ -3825,20 +3845,20 @@
         <v>16</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" s="72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H21" s="78"/>
-      <c r="I21" s="81"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" ht="28.15" customHeight="1" spans="1:9">
       <c r="A22" s="16"/>
@@ -3846,20 +3866,20 @@
         <v>17</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D22" s="75"/>
       <c r="E22" s="72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H22" s="78"/>
-      <c r="I22" s="81"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" ht="28.15" customHeight="1" spans="1:9">
       <c r="A23" s="16"/>
@@ -3867,20 +3887,20 @@
         <v>18</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D23" s="75"/>
       <c r="E23" s="72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" s="78"/>
-      <c r="I23" s="81"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3916,14 +3936,14 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="16"/>
     </row>
     <row r="2" ht="18.15" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3948,7 +3968,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3961,7 +3981,7 @@
     <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3974,7 +3994,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3987,7 +4007,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4010,31 +4030,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4046,7 +4066,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -4077,7 +4097,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -4207,7 +4227,7 @@
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="1:9">
       <c r="A22" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4259,7 +4279,7 @@
     </row>
     <row r="26" ht="15.9" spans="1:9">
       <c r="A26" s="35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -4284,7 +4304,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" s="39" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="1"/>
@@ -4297,7 +4317,7 @@
     <row r="29" spans="1:9">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="1"/>
@@ -4310,12 +4330,12 @@
     <row r="30" spans="1:9">
       <c r="A30" s="40"/>
       <c r="B30" s="41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="40"/>
       <c r="E30" s="41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
@@ -4347,12 +4367,12 @@
     <row r="33" spans="1:9">
       <c r="A33" s="40"/>
       <c r="B33" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="40"/>
       <c r="E33" s="61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -4362,12 +4382,12 @@
     <row r="34" spans="1:9">
       <c r="A34" s="40"/>
       <c r="B34" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="40"/>
       <c r="E34" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
@@ -4433,14 +4453,14 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="16"/>
     </row>
     <row r="2" ht="18.15" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4465,7 +4485,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4478,7 +4498,7 @@
     <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4491,7 +4511,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4504,7 +4524,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4527,31 +4547,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4563,7 +4583,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I10" s="17"/>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29103" windowHeight="12869" activeTab="1"/>
+    <workbookView windowWidth="29103" windowHeight="12869" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CKP-T All" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
     <t xml:space="preserve">Jabatan                    : </t>
   </si>
   <si>
-    <t xml:space="preserve">Periode                    : </t>
+    <t>Periode                    : 1 - 30 September 2021</t>
   </si>
 </sst>
 </file>
@@ -658,12 +658,12 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;(&quot;0&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -831,6 +831,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -839,8 +847,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,10 +891,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,48 +936,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,16 +951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,21 +962,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,19 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,37 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1054,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1078,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,43 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,15 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1466,15 +1457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1489,150 +1471,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,16 +1662,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1695,7 +1695,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,7 +1716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,20 +1755,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,19 +1777,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,7 +1797,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,16 +1806,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,8 +1962,8 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -3340,8 +3340,8 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -4433,8 +4433,8 @@
   <sheetPr/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
